--- a/Visual Search_final.xlsx
+++ b/Visual Search_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaf2dc046489a30/Documents/2. Courses/PSY310/Experiments/T3_Visual Search/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{5859BD3F-49AB-43EA-8843-97E1C14E6432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51CC44CA-5771-4A90-867B-104FFE257B74}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{5859BD3F-49AB-43EA-8843-97E1C14E6432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B9AA2A-ED52-42FC-ADDF-69B3A5A76725}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{157F25D8-F0DF-477F-8810-DE4721127BEE}"/>
+    <workbookView xWindow="-36" yWindow="1464" windowWidth="11604" windowHeight="9600" xr2:uid="{157F25D8-F0DF-477F-8810-DE4721127BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="12">
   <si>
     <t>num_distr</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>mean_rt_10</t>
+  </si>
+  <si>
+    <t>mean_all</t>
+  </si>
+  <si>
+    <t>Slope</t>
   </si>
 </sst>
 </file>
@@ -1324,6 +1330,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1623,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D187697-2696-45F3-B161-EBBA1BB3405B}">
   <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A738" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,6 +1721,13 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(B2:B801)</f>
+        <v>1.9193613097502378</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1724,6 +1741,13 @@
       </c>
       <c r="D5">
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <f>(H3-H2)/(F3-F2)</f>
+        <v>5.2755636517712513E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -12900,6 +12924,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>